--- a/Datos/Configuración 7 (SS)/ResultadosCSV/ResultadosCSV config7.xlsx
+++ b/Datos/Configuración 7 (SS)/ResultadosCSV/ResultadosCSV config7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDavid\Desktop\Andes\Semestre VI\Infraestructura Computacional\Caso 3\srv202010-fuentes\Caso3_Infracomp_Servidor\Datos\Configuración 7 (SS)\ResultadosCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3D7E1F-9010-45D2-BD60-75F2A16466E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD1913-BC98-413F-92D8-31A9F2895920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1AFC9D0D-B72C-4632-941B-2A2A62082848}"/>
+    <workbookView minimized="1" xWindow="870" yWindow="1512" windowWidth="11520" windowHeight="6000" xr2:uid="{1AFC9D0D-B72C-4632-941B-2A2A62082848}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1444,7 +1444,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$J$6:$J$405</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="400"/>
                 <c:pt idx="0">
                   <c:v>0.77082582510789466</c:v>
@@ -2740,7 +2740,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11399,7 +11399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B37FA1F-6E4F-4942-BD7F-8B3EA8612120}">
   <dimension ref="A1:R4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>

--- a/Datos/Configuración 7 (SS)/ResultadosCSV/ResultadosCSV config7.xlsx
+++ b/Datos/Configuración 7 (SS)/ResultadosCSV/ResultadosCSV config7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDavid\Desktop\Andes\Semestre VI\Infraestructura Computacional\Caso 3\srv202010-fuentes\Caso3_Infracomp_Servidor\Datos\Configuración 7 (SS)\ResultadosCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD1913-BC98-413F-92D8-31A9F2895920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD25B63E-DB35-4786-9C36-2F0A90E8B582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="870" yWindow="1512" windowWidth="11520" windowHeight="6000" xr2:uid="{1AFC9D0D-B72C-4632-941B-2A2A62082848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1AFC9D0D-B72C-4632-941B-2A2A62082848}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>Varianza</t>
   </si>
   <si>
-    <t>Desviación estandar</t>
+    <t>Desv. estandar</t>
   </si>
 </sst>
 </file>
@@ -109,15 +109,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,18 +137,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,2534 +201,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso CPU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Sheet1!$H$6:$H$405</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="400"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$J$6:$J$405</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="400"/>
-                <c:pt idx="0">
-                  <c:v>0.77082582510789466</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6453204142420822</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49412666891256074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50273959774653443</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49099512862853217</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39520666036943319</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.32409861427622233</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22268847914535708</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23901690360820146</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.24740472420392406</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25033887252548248</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.24342202195333137</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24060991338947818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.23501448895413268</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.23587005848589815</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2251001233520139</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.22554991970776953</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.22518567793157657</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.21516681112706931</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.25650013530349564</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.24716450619003838</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21607027056364189</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.24563146946292291</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24759755999480795</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24109861948643702</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.2543325652099715</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27554506830711212</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27538314293100397</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.26536791110784891</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.21756743059450098</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.24810618776476062</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.20247067913781217</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.19701310245297543</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.18409314202208887</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.16346236886709359</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.20648603164335064</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.19604837074396367</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.19373346166778199</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.19550955977062556</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.2236964003440271</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.21723397660826133</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.2301753911100014</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.22421727267238889</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.2132201578018427</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.19900986298355341</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.18841977273408397</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.1772310648229739</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.17511601921217712</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.20029989302194193</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.19494056900351389</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.20676734207278721</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.24164947264357628</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.26017616552445122</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.26010201770392816</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.26816248138346621</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.24832757961818988</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.23058396335374801</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.19707458049353413</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.18989411390211738</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.1979909476205762</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.21863576396613932</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.25740411386143619</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.26222325059743262</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.25374687928893869</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.26389948793142953</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.2444239698790665</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.2319861017910694</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.23590300418303786</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.22399337900894958</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.2187987042421872</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.20698712794508725</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.18515776878675005</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.19486278067639773</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.18833933868559058</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.21774942185686297</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.21232902037570792</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.22795172201619474</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.23737212273555777</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.2016260874091455</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.190258997150624</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.1912018641937783</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.18352223536091336</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.200149120668872</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.19034362332651944</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.17889793538036033</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.1904324870776602</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.185076562020318</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.27527496119192468</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.26682547404913315</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.27512884558073014</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.3001898381721454</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.19226243151813172</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.22783041564015291</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.2020289007231941</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.20649186520933288</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.2116038019440187</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.22617586287213304</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.2454090121549195</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.25109724035852199</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.24357858452635089</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.26628331455073295</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.24399702432308057</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.22561151595370568</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.22692080275484919</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.1848498238318379</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.18512751333526439</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.19212705465417831</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.2039725729572551</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.21948400437198617</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.22103026018205138</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.24058597724202291</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.23791086274983558</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.22501378865857777</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.24837122002032908</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.23001360016141401</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.1914634665357822</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.20242893268995238</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.19101252693262738</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.18457719963041674</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.19768682619310482</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.19952428397780042</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.2255291320169496</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.21509687198522198</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.21178868426313449</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.21088355703686518</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.21681843598633979</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.21072416797559901</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.20934351742928772</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.19139117886470777</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.18639024239858468</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.19745877980332671</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.18637954972102858</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.19699624098655369</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.19711704015001083</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.20017958656781026</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.19099487642346516</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.19115756128815992</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.194927019790643</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.1990836842494553</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.17677915263736912</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.17832154805790842</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.20196627041446299</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.20420436514651222</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.21804183155294812</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.21109615472408549</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.22521845988347569</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.23792504464686878</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.24662952506058267</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.27051804818259872</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.25588107871576904</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.24162092506380869</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.22302184779915188</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.22933377040718461</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.21404693759837279</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.22799427161567359</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.22468808249979369</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.220127639311086</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.226747153094775</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.21800847275213758</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.20059375103305549</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.2475043088090656</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.22572168498802303</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.21981087731364921</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.2411544961191785</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.21708482310817001</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.26015143438792571</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.2360359644839512</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.23966079949374766</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.23137705678804735</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.22551463552374229</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.23229605726612712</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.24779832464053</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.26721570807822009</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.25461836686226141</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.23905736708498071</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.26460639386702595</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.25605115754822533</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.25405440096983389</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.25477627182212148</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.26860734522479979</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.27415280810729198</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.24740899920485457</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.26655348001019319</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.19280349319970505</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.23264059258887712</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.23872126072750549</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.2417729930763442</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.32925588692348656</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.33572779671563874</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.32747360548982513</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.23259186988429564</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.3207654381321467</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.23711109660695218</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.23295727793087412</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.21952361907268095</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.19678339719144078</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.23719639628480629</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.25566143761604432</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.25234681033405548</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.23933235584968848</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.25274537000716579</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.21562366154481041</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.20726206566041308</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.24258340669321948</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.22825500151552369</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.23233345436976066</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.22188168765221769</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.19669475120503532</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.20922876608740448</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.22925266080550011</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.21953127793421173</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.22747898431689034</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.22278364892332497</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.21283336297404618</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.1907683507635464</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.19956940336122853</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.20861005931305027</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.21297932327776106</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.23271620451402453</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.22990990918745349</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.31087560342189724</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.36937381367542499</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.38683421332614221</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.26792923323288259</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.21133417831738921</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.2861393980486151</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.2353757682748287</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.22700711494324038</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.21695557346972671</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.21476741815286249</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.21643597997307856</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.23686796323861711</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.24879994254342955</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.3087088459348506</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.32497943810569907</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.33352385664485207</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.27689590987228951</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.32168929288655862</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.25941027319997867</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.25481349483127763</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.237182643077095</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0.22944943703159068</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0.2331072692258539</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.24227160206331383</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.2415402575205193</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.2387660780463757</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.30361522813520575</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.30619983834260467</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.31383038469977792</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.28632931801075789</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.21518824644875972</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.23796649736254202</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.2373748508626787</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.2165486577130305</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.23083464331020001</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.24874778266763989</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.25926553717890422</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0.25787629789979333</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.2695995853630756</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0.2767637881969755</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0.33629043845664996</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0.30601781524140298</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>0.38001461000409464</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>0.28651523862206274</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>0.30121086009474546</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0.36104941780176675</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>0.29239286479961429</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>0.31159105555144057</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>0.20877339173942155</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>0.22134091130492145</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>0.25863463575934914</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>0.2689586054235385</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>0.26561761685465068</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>0.24340133112275542</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0.23220876219177009</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0.24270989557700623</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>0.23266955352693966</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0.20545022697438536</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0.19745784538339411</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>0.2232228678013389</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>0.22920081131450779</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>0.23666209838604657</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0.23493401180054729</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0.28931524185721075</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>0.30067744455357398</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>0.30096889186105336</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>0.26815568351698382</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>0.1898638639373513</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>0.18721152450978734</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>0.19125173886074071</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>0.2027165573627604</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0.20102748903817869</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>0.24087556849934863</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>0.23285914265449556</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>0.25290329060986283</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>0.23103595234963781</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0.32568569809350828</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>0.32018426441268083</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>0.32325072638409497</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>0.31269278525963778</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>0.31252523305651869</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>0.31322974816439031</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>0.21439820407970422</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>0.22008304454508981</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>0.22929653291610749</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>0.22149554896498821</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>0.21808389124513347</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>0.23156991628061299</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>0.30623596795822161</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>0.3152095450860109</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>0.23097783103635541</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>0.24558722581033973</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>0.2413651356900241</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>0.23879699641340021</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>0.2298893892207442</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>0.22724639425320803</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>0.22081002478490352</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>0.21100641674059439</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>0.23642772498397327</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>0.24864224399875859</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>0.24533553563811916</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>0.2316359725243736</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>0.21715795879137098</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>0.2228216767848106</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>0.23821805130164742</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>0.25273135297132199</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>0.25113493014516519</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>0.26758028242230597</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>0.26050131970627782</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>0.25078759532634093</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>0.25854829540973312</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>0.22695859075174249</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>0.26177455586546056</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>0.25420339387945545</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>0.26301518140350538</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>0.2415875158207858</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>0.24721797914761773</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>0.22732010174071518</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>0.21121671191909777</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>0.2114962306420215</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>0.30411090601246743</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>0.29880786915541263</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>0.2826335546114791</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>0.29923033925885706</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>0.22327086092923459</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>0.20494780721621766</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>0.21892858760747153</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>0.2240194121446259</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>0.29117554566493986</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>0.28834673407342243</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>0.32223455886449309</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0.29342984770785319</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0.3991061285001794</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0.3991061285001794</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0.32538603634887459</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0.28830849088860711</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0.2718024504945688</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0.20608758657552051</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0.20529786833131192</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>0.22921472244756991</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0.2187163330952081</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0.21559178766022921</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0.21673766211932041</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0.22863310851295043</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>0.22147093011418581</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>0.24425431133065156</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>0.24522453846870915</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>0.255933671142694</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>0.24982967514752608</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>0.24226870442896759</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>0.26252185844035997</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>0.2265869596132431</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>0.24913131724518528</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>0.23711477185656754</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>0.23986078437252303</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>0.2187719660276333</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>0.22297918639170797</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>0.31448169198599574</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>0.31198162119912787</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>0.29641156922240008</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>0.22579006068825588</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>0.23437809213882921</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>0.22897882616491949</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>0.32464368288692969</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>0.31036845898562421</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>0.32846463298718942</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>0.39690535257017601</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>0.37961135189715223</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>0.37228972298967655</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>0.39051471442959523</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>0.33420346661874467</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>0.23527120891012834</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>0.24422900764517386</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>0.24417736592056236</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>0.26742744595648599</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>0.23896637707245533</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>0.20883639377501492</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>0.22048146344590372</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>0.20229840737523538</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>0.22864755302562589</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-290F-4921-A4E4-FF560A273B43}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1523551663"/>
-        <c:axId val="1389686223"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1523551663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2709,132 +219,26 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transacción</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Tiempo de Transacción(ms)</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="1389686223"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1389686223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1523551663"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1660309802315173"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5437,6 +2841,2701 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1388450015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transacción vs Uso</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de CPU(%)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uso CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$6:$H$405</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="400"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$6:$J$405</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="400"/>
+                <c:pt idx="0">
+                  <c:v>0.72681951317071214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61615903867937571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55734007065720281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2602204938571232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25939171962794988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24874589360315436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23517056203414122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23576084309056106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23919760483439223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21099353115695785</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1933317911291251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1893469105195161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20828019750049459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18888972868417719</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17986995898057909</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15733195918462106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15463695290961088</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17135498916334491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15569493738712986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19023405033543639</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.17979620360876489</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17757267831000756</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15315923303382711</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15691503667640319</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1554455162015719</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16011670996118774</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.17588603613207976</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17659155816878916</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17123697234467916</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17373376242622279</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.18367245818157557</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1746167809893564</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1816731733456696</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13628422016718023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16170969031053739</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.15544727435306493</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16684472785659732</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.16083478916053781</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1702297570034822</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.16190528345818225</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15788400937701649</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.16203270553809332</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.17616959045614819</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.20016716250120531</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1923222093035461</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.17490439619091611</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14937890586445979</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.15350602407744451</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.1610552550122501</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16211091894869167</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.16970594439135347</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16355292294634477</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.15282090270555651</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.16495326083915152</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.16315577699592379</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.19128815558678319</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.18284416103048881</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.20137735096066181</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.16344469888351387</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.17388455276374701</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.15155782451100738</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.17308335167726219</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14971502754887983</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.1767956908267739</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.17393250176340469</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.17602257631816531</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.17321988402266594</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.21669967588822722</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.22592821158176718</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.22338976763594764</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.17475809472173823</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.17943935255699259</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.15265823810929771</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.16865061720872659</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.16351840553003097</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.13165272333007441</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.15903155012177331</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.18377666240005688</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.18583678029274464</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.2032038294973956</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.21033974775050671</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.21678116442488307</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.22776909752219171</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.18513433660819209</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.17834280713637679</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.16654240838249479</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.19264529156737079</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.16965579039543349</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.17041786494863151</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.12585482303680923</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.1549927991028289</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.14504606421580241</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.17453181631058862</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.16152123981329988</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.18170740208484329</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1705582834151389</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.17716386413377552</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.1730384628515042</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.15973856533752689</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.16911939231154471</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.15832105088951517</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.15512605759095446</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.15466542084545537</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.15982177313551052</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.14838400629644002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.16280429075695008</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.17932293990945425</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.18024549568213025</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.15193151987140391</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.16017107409591</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.1764729861486066</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.18503953293990741</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.1788084981893551</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.17262538750477222</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.1683518437999745</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.16105702680201797</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.16269483010343705</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.16692851760687921</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.15619742172916568</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.1385915270938155</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.14749790967214249</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.16469841356880291</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.19943806995573601</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.2040789368571069</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.20284873781695828</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.19974773938143489</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.24890459440703064</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.23947824018559316</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.21816815812415138</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.18883940588130341</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.19960384643317219</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.19276116537003005</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.21312375675581641</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.2223894890621308</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.24210531866687099</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.23039061494322802</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.18769270111373021</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.1823584150434393</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.18501238197906184</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.1691911709622847</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.1759651031322047</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.17313761306020722</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.186058365379142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.1820034719526179</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.21095706146021034</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.19375491994479155</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.22530945530187541</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.20732197903058847</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.18289489876580517</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.14807109246536818</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.15409972985840889</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.15245363673070059</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.17421427564352299</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.1775020744962752</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.17547357300047925</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.17092951548039376</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.16807133095330085</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.15559026971807771</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.14780531454179235</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.15617550326234308</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.16072894540570432</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.16591283303938037</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.15588163130585678</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.16876385267999416</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.1890668736856162</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.1947622360631264</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.20084620430879688</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.18436774466440661</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.16870573860660498</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.17763692723854629</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.17621166075516961</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.18007787970800748</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.17194586868512762</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.1734646613870244</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.18026847041463193</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.16492112206701312</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.17728577755554331</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.17052195379510288</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.164878514716957</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.16120948898832388</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.16138346129583031</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.15122927545703191</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.17257072688335151</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.17625492299827786</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.17473778417675526</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.16508383413042385</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.17012579155205862</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.16349974738237411</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.17430410952813385</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.2041698468779824</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.2106968510009061</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.20794682489653152</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.17863022339810564</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.22428496371985063</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.22269801924980903</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.21981801477793614</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.17335007487133341</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.19500286131843508</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.19298082483438239</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.19481005503922538</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.19459231542615718</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.20028398846035445</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.16378615612799646</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.18496990357622431</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.1846018494975494</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.19879051296301989</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.18234077975592741</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.17568390420980326</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.18303948299632952</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.19377002897794132</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.20153606192212639</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.20255743006997146</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.17627867421008317</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.19442483855108139</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.17758210857231449</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.17186019684551632</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.15670916681551464</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.15029275311606738</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.17206288484430579</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.16879165436603732</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.17398726649679289</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.18617909039264069</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.20750891725119738</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.2255931734676502</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.20453448116931039</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.20007250658043307</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.18275477667527551</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.1958764281549947</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.21402984121465679</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.19107968927917221</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.20525395105304489</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.19664131760596607</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.19215929599551568</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.21153356396397907</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.3278447282624487</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.33631753442586798</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.26371979073768459</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.21361692940668839</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.18651630803868621</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.19554323602676779</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.19289108058379484</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.19408818994045249</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.19631917122079362</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.2182662106374402</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.20732485431149467</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.19350222823506777</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.18563222593156845</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.20291745971595238</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.20121249924738868</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.20659082455142841</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.21364531601188311</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.21880521897584118</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.19428839744591817</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.20685178776377824</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.20543587668522992</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.20953074892297641</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.24084201528135821</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.23039058490014991</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.22520601233631282</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.23160126050551841</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.23171036980452628</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.2304356644267041</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.23518246619896821</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.21791427001070679</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.17691915014774984</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.18928224221200843</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.19115551467719108</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.19693252884694751</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.22938487013578371</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.23708427047563468</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.21834710778475169</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.1628335410222562</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.16420919557579444</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.17714093194176064</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.20648858922204547</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.23135344749719441</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.21140234976496838</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.17820211378889111</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.19055373360338504</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.19244037820532534</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.1974553151207285</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.18573548517735708</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.19313989318876629</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.18798263428101281</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.1843828457070196</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.17977658029534002</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.20650054110112145</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.20548382953298763</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.20234011612327699</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.1938591751557503</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.17014277920137397</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.19413552964268085</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.18713257192757379</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.23059135814809179</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.19696628867902394</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.20321703305737826</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.19911285396887257</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.25079378147998499</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.23569659253821648</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.22552988300258014</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.19215312489837738</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.25062016947311633</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.25761795559567741</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.26888503811376974</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.23049808387792772</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.25532826670727088</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.23763443101973489</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.22186728183992549</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.21399352686033141</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.2364524616457368</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.22780019683444508</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.20711123222511155</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.22747916244602132</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.26830835548574633</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.25493355385857003</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.22498901013082004</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.21357702672738973</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.23167784753683315</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.22185676707618149</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.27882636220963286</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.26819524569921877</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.24338016606080287</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.21848979890412223</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.22742116239579466</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.20926337924704008</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.21026739297781538</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.22177710456872252</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.21273322386957791</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.23664928550032788</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.22920899063793507</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.22927716836532661</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.21535254138497922</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.23365871780260927</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.27282389462706286</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.26799141370245855</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.25258159805289687</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.26999683013201176</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.28027557328744745</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.26154882148163261</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.26776620423209385</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.22222376335524882</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.20934101228929283</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.22228350348859138</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.23592952758212371</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.22716756171162364</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.24290276969483024</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.25428861473857106</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.24776361850466294</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.21525640875751861</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.22925721709913952</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.23211871002511664</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.19268597247839991</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.20555306695663411</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.24063317493305778</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.25434574418294753</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.24267042118367813</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.26287253125862514</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.25101562347547041</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.26143949455877552</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.25188686371129587</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.28128606874292167</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.2879863428460761</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.28108608684182307</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.24647214885806956</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.25051617832699002</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.2563710893135559</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.24445930013226463</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.23401378372261483</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.24303256552920419</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.23093975180500614</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.20845180472475586</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.23278295900024465</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.23811086442757307</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.23396444209967673</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.21055462275620912</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.21366225583051268</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.21698742634981355</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.22557082604704523</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.23983118180680399</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.24729835235210479</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.25658480771046088</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.2392960281527256</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.2328281031932764</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.22281132221361483</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.22203544255095728</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.29445646146220988</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.30113753125130965</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.30010434468386288</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.27059851989968559</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.26796389748150068</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.23636313150388522</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.20919499778273512</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.21569986367754354</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.21706801203162066</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.2356908594675354</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.22849736923233926</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.22931431624427318</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.25493066709902062</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.25746428451420139</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.23371452240190771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8468-40A3-8C50-406A108DB707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1494578319"/>
+        <c:axId val="1687990079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1494578319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687990079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1687990079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1494578319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6601,23 +6700,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>491490</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A1E778-37F4-4475-BA82-422009DBE561}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639F9DCB-C356-47BE-88B6-B12593EAE298}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6639,29 +6738,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639F9DCB-C356-47BE-88B6-B12593EAE298}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88169014-9BF9-4A7A-8005-CB6DF94D43B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11399,11 +11496,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B37FA1F-6E4F-4942-BD7F-8B3EA8612120}">
   <dimension ref="A1:R4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="14" max="14" width="13.68359375" customWidth="1"/>
+    <col min="15" max="15" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1015625" customWidth="1"/>
+    <col min="18" max="18" width="12.68359375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -11564,16 +11667,16 @@
       <c r="N6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -11613,22 +11716,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="6">
         <f>AVERAGE(I6:I405)</f>
         <v>283.54025000000013</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="7">
         <f t="shared" ref="P7:R7" si="4">AVERAGE(J6:J405)</f>
         <v>0.20364383338548997</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11669,22 +11772,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="6">
         <f>MEDIAN(I6:I405)</f>
         <v>275</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="7">
         <f t="shared" ref="P8:R8" si="5">MEDIAN(J6:J405)</f>
         <v>0.19435661799849979</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -11725,22 +11828,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="6">
         <f>_xlfn.MODE.SNGL(I6:I405)</f>
         <v>302.7</v>
       </c>
-      <c r="P9" s="2" t="e">
+      <c r="P9" s="7" t="e">
         <f t="shared" ref="P9:R9" si="6">_xlfn.MODE.SNGL(J6:J405)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -11781,22 +11884,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="6">
         <f>_xlfn.VAR.S(I6:I405)</f>
         <v>14847.254892167843</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="7">
         <f t="shared" ref="P10:R10" si="7">_xlfn.VAR.S(J6:J405)</f>
         <v>2.6796508521197381E-3</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11837,22 +11940,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="6">
         <f>O10^0.5</f>
         <v>121.84931223510391</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="7">
         <f t="shared" ref="P11:R11" si="8">P10^0.5</f>
         <v>5.1765344122489308E-2</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
